--- a/public/admin/payslip_formate.xlsx
+++ b/public/admin/payslip_formate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,10 +200,10 @@
     <t>Arr Basic</t>
   </si>
   <si>
-    <t>Arr Hra</t>
-  </si>
-  <si>
-    <t>Arr Conveyance</t>
+    <t>arr_efwe</t>
+  </si>
+  <si>
+    <t>Arr_Conveyance</t>
   </si>
   <si>
     <t>Arr Medical Reimbursement</t>
@@ -933,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,6 +945,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1487,8 +1490,8 @@
   <sheetPr/>
   <dimension ref="A1:CL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
-      <selection activeCell="CG10" sqref="CG10"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BH1" sqref="BH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5555555555556" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1674,10 +1677,10 @@
       <c r="BG1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BJ1" s="2" t="s">
@@ -1719,7 +1722,7 @@
       <c r="BV1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BW1" s="6" t="s">
         <v>74</v>
       </c>
       <c r="BX1" s="1" t="s">
